--- a/Team-Data/2014-15/4-12-2014-15.xlsx
+++ b/Team-Data/2014-15/4-12-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" t="n">
         <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" t="n">
-        <v>0.75</v>
+        <v>0.759</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
@@ -684,10 +751,10 @@
         <v>38.1</v>
       </c>
       <c r="J2" t="n">
-        <v>81.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.467</v>
+        <v>0.468</v>
       </c>
       <c r="L2" t="n">
         <v>10</v>
@@ -696,16 +763,16 @@
         <v>26.1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.382</v>
+        <v>0.383</v>
       </c>
       <c r="O2" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P2" t="n">
         <v>21.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.777</v>
+        <v>0.778</v>
       </c>
       <c r="R2" t="n">
         <v>8.699999999999999</v>
@@ -723,16 +790,16 @@
         <v>14.3</v>
       </c>
       <c r="W2" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="X2" t="n">
         <v>4.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="AA2" t="n">
         <v>19.8</v>
@@ -741,10 +808,10 @@
         <v>102.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
         <v>2</v>
@@ -804,7 +871,7 @@
         <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY2" t="n">
         <v>18</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-12-2014-15</t>
+          <t>2015-04-12</t>
         </is>
       </c>
     </row>
@@ -848,28 +915,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E3" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" t="n">
         <v>42</v>
       </c>
       <c r="G3" t="n">
-        <v>0.475</v>
+        <v>0.468</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="J3" t="n">
-        <v>87.8</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L3" t="n">
         <v>8</v>
@@ -878,7 +945,7 @@
         <v>24.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.326</v>
+        <v>0.325</v>
       </c>
       <c r="O3" t="n">
         <v>15.6</v>
@@ -887,7 +954,7 @@
         <v>20.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.755</v>
+        <v>0.756</v>
       </c>
       <c r="R3" t="n">
         <v>11.1</v>
@@ -896,19 +963,19 @@
         <v>32.8</v>
       </c>
       <c r="T3" t="n">
-        <v>43.8</v>
+        <v>43.9</v>
       </c>
       <c r="U3" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="V3" t="n">
         <v>13.8</v>
       </c>
       <c r="W3" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Y3" t="n">
         <v>5.3</v>
@@ -920,25 +987,25 @@
         <v>18.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.4</v>
+        <v>101.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG3" t="n">
         <v>17</v>
       </c>
       <c r="AH3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI3" t="n">
         <v>5</v>
@@ -962,34 +1029,34 @@
         <v>28</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS3" t="n">
         <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AX3" t="n">
         <v>30</v>
       </c>
       <c r="AY3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ3" t="n">
         <v>22</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-12-2014-15</t>
+          <t>2015-04-12</t>
         </is>
       </c>
     </row>
@@ -1030,37 +1097,37 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" t="n">
         <v>37</v>
       </c>
       <c r="F4" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" t="n">
-        <v>0.463</v>
+        <v>0.468</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="J4" t="n">
         <v>83</v>
       </c>
       <c r="K4" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L4" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M4" t="n">
         <v>20</v>
       </c>
       <c r="N4" t="n">
-        <v>0.331</v>
+        <v>0.333</v>
       </c>
       <c r="O4" t="n">
         <v>16.6</v>
@@ -1069,28 +1136,28 @@
         <v>22.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.748</v>
+        <v>0.749</v>
       </c>
       <c r="R4" t="n">
         <v>10.3</v>
       </c>
       <c r="S4" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T4" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U4" t="n">
         <v>21</v>
       </c>
       <c r="V4" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W4" t="n">
         <v>7.1</v>
       </c>
       <c r="X4" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y4" t="n">
         <v>4.5</v>
@@ -1102,34 +1169,34 @@
         <v>20</v>
       </c>
       <c r="AB4" t="n">
-        <v>98.09999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2.8</v>
+        <v>-2.5</v>
       </c>
       <c r="AD4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH4" t="n">
         <v>2</v>
       </c>
-      <c r="AE4" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>3</v>
-      </c>
       <c r="AI4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AJ4" t="n">
         <v>17</v>
       </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL4" t="n">
         <v>24</v>
@@ -1138,19 +1205,19 @@
         <v>20</v>
       </c>
       <c r="AN4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO4" t="n">
         <v>18</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ4" t="n">
         <v>20</v>
       </c>
       <c r="AR4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS4" t="n">
         <v>17</v>
@@ -1162,16 +1229,16 @@
         <v>20</v>
       </c>
       <c r="AV4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX4" t="n">
         <v>25</v>
       </c>
       <c r="AY4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ4" t="n">
         <v>12</v>
@@ -1180,7 +1247,7 @@
         <v>18</v>
       </c>
       <c r="BB4" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="BC4" t="n">
         <v>21</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-12-2014-15</t>
+          <t>2015-04-12</t>
         </is>
       </c>
     </row>
@@ -1212,28 +1279,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" t="n">
         <v>33</v>
       </c>
       <c r="F5" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" t="n">
-        <v>0.413</v>
+        <v>0.418</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="J5" t="n">
-        <v>84.7</v>
+        <v>84.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.42</v>
+        <v>0.421</v>
       </c>
       <c r="L5" t="n">
         <v>5.9</v>
@@ -1242,31 +1309,31 @@
         <v>18.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.315</v>
+        <v>0.316</v>
       </c>
       <c r="O5" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P5" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.749</v>
+        <v>0.75</v>
       </c>
       <c r="R5" t="n">
         <v>10.1</v>
       </c>
       <c r="S5" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="T5" t="n">
-        <v>44.2</v>
+        <v>44.3</v>
       </c>
       <c r="U5" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V5" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="W5" t="n">
         <v>6</v>
@@ -1275,22 +1342,22 @@
         <v>5.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AA5" t="n">
         <v>20.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.3</v>
+        <v>94.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.1</v>
+        <v>-2.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
@@ -1317,7 +1384,7 @@
         <v>27</v>
       </c>
       <c r="AM5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN5" t="n">
         <v>30</v>
@@ -1350,7 +1417,7 @@
         <v>30</v>
       </c>
       <c r="AX5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY5" t="n">
         <v>23</v>
@@ -1362,10 +1429,10 @@
         <v>8</v>
       </c>
       <c r="BB5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-12-2014-15</t>
+          <t>2015-04-12</t>
         </is>
       </c>
     </row>
@@ -1472,10 +1539,10 @@
         <v>2.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF6" t="n">
         <v>10</v>
@@ -1484,7 +1551,7 @@
         <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AI6" t="n">
         <v>23</v>
@@ -1514,7 +1581,7 @@
         <v>3</v>
       </c>
       <c r="AR6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS6" t="n">
         <v>7</v>
@@ -1523,10 +1590,10 @@
         <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW6" t="n">
         <v>28</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-12-2014-15</t>
+          <t>2015-04-12</t>
         </is>
       </c>
     </row>
@@ -1576,46 +1643,46 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" t="n">
         <v>51</v>
       </c>
       <c r="F7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" t="n">
-        <v>0.638</v>
+        <v>0.646</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="J7" t="n">
-        <v>82</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K7" t="n">
         <v>0.458</v>
       </c>
       <c r="L7" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="M7" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="N7" t="n">
-        <v>0.362</v>
+        <v>0.364</v>
       </c>
       <c r="O7" t="n">
         <v>18</v>
       </c>
       <c r="P7" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.754</v>
+        <v>0.755</v>
       </c>
       <c r="R7" t="n">
         <v>11.1</v>
@@ -1627,13 +1694,13 @@
         <v>42.9</v>
       </c>
       <c r="U7" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V7" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W7" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X7" t="n">
         <v>4.1</v>
@@ -1648,13 +1715,13 @@
         <v>20.8</v>
       </c>
       <c r="AB7" t="n">
-        <v>102.9</v>
+        <v>103.3</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
         <v>7</v>
@@ -1666,25 +1733,25 @@
         <v>7</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AJ7" t="n">
         <v>25</v>
       </c>
       <c r="AK7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AL7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM7" t="n">
         <v>2</v>
       </c>
       <c r="AN7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO7" t="n">
         <v>7</v>
@@ -1693,10 +1760,10 @@
         <v>9</v>
       </c>
       <c r="AQ7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AS7" t="n">
         <v>21</v>
@@ -1705,7 +1772,7 @@
         <v>18</v>
       </c>
       <c r="AU7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
         <v>16</v>
@@ -1717,7 +1784,7 @@
         <v>26</v>
       </c>
       <c r="AY7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ7" t="n">
         <v>5</v>
@@ -1726,10 +1793,10 @@
         <v>10</v>
       </c>
       <c r="BB7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BC7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-12-2014-15</t>
+          <t>2015-04-12</t>
         </is>
       </c>
     </row>
@@ -1761,25 +1828,25 @@
         <v>79</v>
       </c>
       <c r="E8" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G8" t="n">
-        <v>0.62</v>
+        <v>0.608</v>
       </c>
       <c r="H8" t="n">
         <v>48.5</v>
       </c>
       <c r="I8" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="J8" t="n">
         <v>85.90000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.463</v>
+        <v>0.462</v>
       </c>
       <c r="L8" t="n">
         <v>8.9</v>
@@ -1788,28 +1855,28 @@
         <v>25.5</v>
       </c>
       <c r="N8" t="n">
-        <v>0.35</v>
+        <v>0.349</v>
       </c>
       <c r="O8" t="n">
         <v>16.8</v>
       </c>
       <c r="P8" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="Q8" t="n">
         <v>0.752</v>
       </c>
       <c r="R8" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S8" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T8" t="n">
-        <v>42.3</v>
+        <v>42.1</v>
       </c>
       <c r="U8" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="V8" t="n">
         <v>12.9</v>
@@ -1830,13 +1897,13 @@
         <v>22.2</v>
       </c>
       <c r="AB8" t="n">
-        <v>105.3</v>
+        <v>105.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1854,7 +1921,7 @@
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
@@ -1869,19 +1936,19 @@
         <v>13</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP8" t="n">
         <v>17</v>
       </c>
       <c r="AQ8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR8" t="n">
         <v>19</v>
       </c>
       <c r="AS8" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AT8" t="n">
         <v>23</v>
@@ -1893,10 +1960,10 @@
         <v>4</v>
       </c>
       <c r="AW8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX8" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
@@ -1911,7 +1978,7 @@
         <v>3</v>
       </c>
       <c r="BC8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-12-2014-15</t>
+          <t>2015-04-12</t>
         </is>
       </c>
     </row>
@@ -1940,49 +2007,49 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" t="n">
         <v>50</v>
       </c>
       <c r="G9" t="n">
-        <v>0.375</v>
+        <v>0.367</v>
       </c>
       <c r="H9" t="n">
         <v>48.5</v>
       </c>
       <c r="I9" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J9" t="n">
         <v>87.2</v>
       </c>
       <c r="K9" t="n">
-        <v>0.432</v>
+        <v>0.431</v>
       </c>
       <c r="L9" t="n">
         <v>8</v>
       </c>
       <c r="M9" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="N9" t="n">
         <v>0.324</v>
       </c>
       <c r="O9" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="P9" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="Q9" t="n">
         <v>0.733</v>
       </c>
       <c r="R9" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S9" t="n">
         <v>32.4</v>
@@ -1991,34 +2058,34 @@
         <v>44.6</v>
       </c>
       <c r="U9" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="V9" t="n">
         <v>14.1</v>
       </c>
       <c r="W9" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X9" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AA9" t="n">
         <v>20.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>101.1</v>
+        <v>100.9</v>
       </c>
       <c r="AC9" t="n">
-        <v>-3.5</v>
+        <v>-3.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
@@ -2030,10 +2097,10 @@
         <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="n">
         <v>2</v>
@@ -2048,7 +2115,7 @@
         <v>12</v>
       </c>
       <c r="AN9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO9" t="n">
         <v>9</v>
@@ -2063,22 +2130,22 @@
         <v>3</v>
       </c>
       <c r="AS9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT9" t="n">
         <v>7</v>
       </c>
       <c r="AU9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AV9" t="n">
         <v>15</v>
       </c>
       <c r="AW9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY9" t="n">
         <v>29</v>
@@ -2090,7 +2157,7 @@
         <v>11</v>
       </c>
       <c r="BB9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC9" t="n">
         <v>24</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-12-2014-15</t>
+          <t>2015-04-12</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" t="n">
         <v>49</v>
       </c>
       <c r="G10" t="n">
-        <v>0.388</v>
+        <v>0.38</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
@@ -2140,43 +2207,43 @@
         <v>37</v>
       </c>
       <c r="J10" t="n">
-        <v>85.90000000000001</v>
+        <v>86</v>
       </c>
       <c r="K10" t="n">
-        <v>0.431</v>
+        <v>0.43</v>
       </c>
       <c r="L10" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="M10" t="n">
         <v>24.9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.343</v>
+        <v>0.34</v>
       </c>
       <c r="O10" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="P10" t="n">
         <v>22.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.704</v>
+        <v>0.702</v>
       </c>
       <c r="R10" t="n">
         <v>12.9</v>
       </c>
       <c r="S10" t="n">
-        <v>32.2</v>
+        <v>32</v>
       </c>
       <c r="T10" t="n">
-        <v>45.1</v>
+        <v>44.9</v>
       </c>
       <c r="U10" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V10" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="W10" t="n">
         <v>7.6</v>
@@ -2191,16 +2258,16 @@
         <v>19.1</v>
       </c>
       <c r="AA10" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB10" t="n">
-        <v>98.40000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.2</v>
+        <v>-1.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2215,22 +2282,22 @@
         <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AK10" t="n">
         <v>27</v>
       </c>
       <c r="AL10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AM10" t="n">
         <v>11</v>
       </c>
       <c r="AN10" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AO10" t="n">
         <v>26</v>
@@ -2245,13 +2312,13 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AT10" t="n">
         <v>4</v>
       </c>
       <c r="AU10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV10" t="n">
         <v>8</v>
@@ -2263,16 +2330,16 @@
         <v>13</v>
       </c>
       <c r="AY10" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA10" t="n">
         <v>24</v>
       </c>
       <c r="BB10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BC10" t="n">
         <v>20</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-12-2014-15</t>
+          <t>2015-04-12</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>10.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2394,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI11" t="n">
         <v>1</v>
@@ -2418,16 +2485,16 @@
         <v>25</v>
       </c>
       <c r="AP11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ11" t="n">
         <v>9</v>
       </c>
       <c r="AR11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT11" t="n">
         <v>5</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-12-2014-15</t>
+          <t>2015-04-12</t>
         </is>
       </c>
     </row>
@@ -2501,13 +2568,13 @@
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J12" t="n">
         <v>83.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L12" t="n">
         <v>11.4</v>
@@ -2531,16 +2598,16 @@
         <v>11.8</v>
       </c>
       <c r="S12" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T12" t="n">
-        <v>43.5</v>
+        <v>43.6</v>
       </c>
       <c r="U12" t="n">
         <v>22.2</v>
       </c>
       <c r="V12" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="W12" t="n">
         <v>9.5</v>
@@ -2552,19 +2619,19 @@
         <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA12" t="n">
         <v>21</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.8</v>
+        <v>103.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AD12" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
@@ -2579,7 +2646,7 @@
         <v>19</v>
       </c>
       <c r="AI12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ12" t="n">
         <v>12</v>
@@ -2606,13 +2673,13 @@
         <v>27</v>
       </c>
       <c r="AR12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS12" t="n">
         <v>23</v>
       </c>
       <c r="AT12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU12" t="n">
         <v>9</v>
@@ -2639,7 +2706,7 @@
         <v>5</v>
       </c>
       <c r="BC12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-12-2014-15</t>
+          <t>2015-04-12</t>
         </is>
       </c>
     </row>
@@ -2668,28 +2735,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" t="n">
         <v>43</v>
       </c>
       <c r="G13" t="n">
-        <v>0.463</v>
+        <v>0.456</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J13" t="n">
-        <v>83</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L13" t="n">
         <v>7.4</v>
@@ -2698,25 +2765,25 @@
         <v>21.1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.353</v>
+        <v>0.351</v>
       </c>
       <c r="O13" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P13" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.757</v>
+        <v>0.76</v>
       </c>
       <c r="R13" t="n">
         <v>10.4</v>
       </c>
       <c r="S13" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="T13" t="n">
-        <v>44.8</v>
+        <v>44.7</v>
       </c>
       <c r="U13" t="n">
         <v>21.5</v>
@@ -2740,28 +2807,28 @@
         <v>21.4</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.5</v>
+        <v>97.3</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AE13" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ13" t="n">
         <v>16</v>
@@ -2770,13 +2837,13 @@
         <v>23</v>
       </c>
       <c r="AL13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM13" t="n">
         <v>18</v>
       </c>
       <c r="AN13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO13" t="n">
         <v>15</v>
@@ -2785,13 +2852,13 @@
         <v>18</v>
       </c>
       <c r="AQ13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT13" t="n">
         <v>6</v>
@@ -2806,10 +2873,10 @@
         <v>29</v>
       </c>
       <c r="AX13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ13" t="n">
         <v>21</v>
@@ -2821,7 +2888,7 @@
         <v>24</v>
       </c>
       <c r="BC13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-12-2014-15</t>
+          <t>2015-04-12</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>6.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2940,7 +3007,7 @@
         <v>3</v>
       </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI14" t="n">
         <v>3</v>
@@ -2985,7 +3052,7 @@
         <v>2</v>
       </c>
       <c r="AW14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX14" t="n">
         <v>9</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-12-2014-15</t>
+          <t>2015-04-12</t>
         </is>
       </c>
     </row>
@@ -3053,64 +3120,64 @@
         <v>85.5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L15" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M15" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="N15" t="n">
-        <v>0.346</v>
+        <v>0.345</v>
       </c>
       <c r="O15" t="n">
         <v>17.4</v>
       </c>
       <c r="P15" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.74</v>
+        <v>0.739</v>
       </c>
       <c r="R15" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S15" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T15" t="n">
         <v>43.9</v>
       </c>
       <c r="U15" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V15" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="W15" t="n">
         <v>7.1</v>
       </c>
       <c r="X15" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y15" t="n">
         <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>98.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC15" t="n">
         <v>-6.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3137,7 +3204,7 @@
         <v>25</v>
       </c>
       <c r="AM15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN15" t="n">
         <v>16</v>
@@ -3155,10 +3222,10 @@
         <v>9</v>
       </c>
       <c r="AS15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AT15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU15" t="n">
         <v>21</v>
@@ -3167,22 +3234,22 @@
         <v>5</v>
       </c>
       <c r="AW15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX15" t="n">
         <v>22</v>
       </c>
       <c r="AY15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA15" t="n">
         <v>23</v>
       </c>
       <c r="BB15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-12-2014-15</t>
+          <t>2015-04-12</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>3.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3304,7 +3371,7 @@
         <v>3</v>
       </c>
       <c r="AH16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI16" t="n">
         <v>13</v>
@@ -3313,7 +3380,7 @@
         <v>22</v>
       </c>
       <c r="AK16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL16" t="n">
         <v>29</v>
@@ -3334,7 +3401,7 @@
         <v>8</v>
       </c>
       <c r="AR16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS16" t="n">
         <v>15</v>
@@ -3343,7 +3410,7 @@
         <v>21</v>
       </c>
       <c r="AU16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV16" t="n">
         <v>6</v>
@@ -3358,7 +3425,7 @@
         <v>20</v>
       </c>
       <c r="AZ16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA16" t="n">
         <v>16</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-12-2014-15</t>
+          <t>2015-04-12</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
@@ -3486,7 +3553,7 @@
         <v>21</v>
       </c>
       <c r="AH17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI17" t="n">
         <v>28</v>
@@ -3498,7 +3565,7 @@
         <v>11</v>
       </c>
       <c r="AL17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM17" t="n">
         <v>19</v>
@@ -3534,7 +3601,7 @@
         <v>13</v>
       </c>
       <c r="AX17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY17" t="n">
         <v>8</v>
@@ -3546,10 +3613,10 @@
         <v>9</v>
       </c>
       <c r="BB17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-12-2014-15</t>
+          <t>2015-04-12</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E18" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" t="n">
         <v>40</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>0.494</v>
       </c>
       <c r="H18" t="n">
         <v>48.6</v>
@@ -3608,13 +3675,13 @@
         <v>18.4</v>
       </c>
       <c r="N18" t="n">
-        <v>0.363</v>
+        <v>0.364</v>
       </c>
       <c r="O18" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P18" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="Q18" t="n">
         <v>0.76</v>
@@ -3623,13 +3690,13 @@
         <v>10.6</v>
       </c>
       <c r="S18" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="T18" t="n">
         <v>42</v>
       </c>
       <c r="U18" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="V18" t="n">
         <v>16.7</v>
@@ -3653,10 +3720,10 @@
         <v>97.7</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
@@ -3668,16 +3735,16 @@
         <v>15</v>
       </c>
       <c r="AH18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ18" t="n">
         <v>26</v>
       </c>
       <c r="AK18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL18" t="n">
         <v>23</v>
@@ -3686,7 +3753,7 @@
         <v>26</v>
       </c>
       <c r="AN18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO18" t="n">
         <v>22</v>
@@ -3695,7 +3762,7 @@
         <v>25</v>
       </c>
       <c r="AQ18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR18" t="n">
         <v>17</v>
@@ -3731,7 +3798,7 @@
         <v>22</v>
       </c>
       <c r="BC18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-12-2014-15</t>
+          <t>2015-04-12</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-8.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
@@ -3850,7 +3917,7 @@
         <v>29</v>
       </c>
       <c r="AH19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
         <v>25</v>
@@ -3868,7 +3935,7 @@
         <v>30</v>
       </c>
       <c r="AN19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO19" t="n">
         <v>2</v>
@@ -3892,10 +3959,10 @@
         <v>16</v>
       </c>
       <c r="AV19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX19" t="n">
         <v>28</v>
@@ -3904,7 +3971,7 @@
         <v>26</v>
       </c>
       <c r="AZ19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA19" t="n">
         <v>5</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-12-2014-15</t>
+          <t>2015-04-12</t>
         </is>
       </c>
     </row>
@@ -3945,13 +4012,13 @@
         <v>79</v>
       </c>
       <c r="E20" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G20" t="n">
-        <v>0.532</v>
+        <v>0.544</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3960,37 +4027,37 @@
         <v>37.8</v>
       </c>
       <c r="J20" t="n">
-        <v>82.59999999999999</v>
+        <v>82.7</v>
       </c>
       <c r="K20" t="n">
-        <v>0.458</v>
+        <v>0.456</v>
       </c>
       <c r="L20" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M20" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.372</v>
+        <v>0.37</v>
       </c>
       <c r="O20" t="n">
         <v>16.4</v>
       </c>
       <c r="P20" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.756</v>
+        <v>0.752</v>
       </c>
       <c r="R20" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S20" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T20" t="n">
-        <v>43.4</v>
+        <v>43.7</v>
       </c>
       <c r="U20" t="n">
         <v>22.1</v>
@@ -4002,34 +4069,34 @@
         <v>6.7</v>
       </c>
       <c r="X20" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z20" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AA20" t="n">
         <v>18.6</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AE20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF20" t="n">
         <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
         <v>23</v>
@@ -4038,10 +4105,10 @@
         <v>12</v>
       </c>
       <c r="AJ20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL20" t="n">
         <v>19</v>
@@ -4059,16 +4126,16 @@
         <v>20</v>
       </c>
       <c r="AQ20" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AR20" t="n">
         <v>10</v>
       </c>
       <c r="AS20" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AT20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU20" t="n">
         <v>10</v>
@@ -4077,7 +4144,7 @@
         <v>7</v>
       </c>
       <c r="AW20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX20" t="n">
         <v>1</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-12-2014-15</t>
+          <t>2015-04-12</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="AD21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE21" t="n">
         <v>29</v>
@@ -4214,7 +4281,7 @@
         <v>29</v>
       </c>
       <c r="AH21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-12-2014-15</t>
+          <t>2015-04-12</t>
         </is>
       </c>
     </row>
@@ -4306,61 +4373,61 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E22" t="n">
         <v>43</v>
       </c>
       <c r="F22" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22" t="n">
-        <v>0.538</v>
+        <v>0.544</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="J22" t="n">
-        <v>86.59999999999999</v>
+        <v>86.5</v>
       </c>
       <c r="K22" t="n">
-        <v>0.446</v>
+        <v>0.447</v>
       </c>
       <c r="L22" t="n">
         <v>7.7</v>
       </c>
       <c r="M22" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="N22" t="n">
         <v>0.339</v>
       </c>
       <c r="O22" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P22" t="n">
         <v>24.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.756</v>
+        <v>0.761</v>
       </c>
       <c r="R22" t="n">
         <v>12.7</v>
       </c>
       <c r="S22" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="T22" t="n">
-        <v>47.4</v>
+        <v>47.5</v>
       </c>
       <c r="U22" t="n">
         <v>20.6</v>
       </c>
       <c r="V22" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W22" t="n">
         <v>7.3</v>
@@ -4372,19 +4439,19 @@
         <v>4.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB22" t="n">
         <v>103.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AE22" t="n">
         <v>13</v>
@@ -4411,7 +4478,7 @@
         <v>16</v>
       </c>
       <c r="AM22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN22" t="n">
         <v>23</v>
@@ -4423,7 +4490,7 @@
         <v>7</v>
       </c>
       <c r="AQ22" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AR22" t="n">
         <v>2</v>
@@ -4438,7 +4505,7 @@
         <v>24</v>
       </c>
       <c r="AV22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW22" t="n">
         <v>21</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-12-2014-15</t>
+          <t>2015-04-12</t>
         </is>
       </c>
     </row>
@@ -4488,34 +4555,34 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E23" t="n">
         <v>25</v>
       </c>
       <c r="F23" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G23" t="n">
-        <v>0.316</v>
+        <v>0.313</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J23" t="n">
-        <v>82.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L23" t="n">
         <v>6.8</v>
       </c>
       <c r="M23" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N23" t="n">
         <v>0.347</v>
@@ -4524,25 +4591,25 @@
         <v>14</v>
       </c>
       <c r="P23" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="Q23" t="n">
         <v>0.734</v>
       </c>
       <c r="R23" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S23" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T23" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="U23" t="n">
         <v>20.8</v>
       </c>
       <c r="V23" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W23" t="n">
         <v>7.9</v>
@@ -4551,22 +4618,22 @@
         <v>3.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA23" t="n">
         <v>18</v>
       </c>
       <c r="AB23" t="n">
-        <v>96</v>
+        <v>95.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.5</v>
+        <v>-5.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4578,16 +4645,16 @@
         <v>26</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ23" t="n">
         <v>19</v>
       </c>
       <c r="AK23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL23" t="n">
         <v>20</v>
@@ -4611,10 +4678,10 @@
         <v>26</v>
       </c>
       <c r="AS23" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AT23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU23" t="n">
         <v>22</v>
@@ -4629,10 +4696,10 @@
         <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-12-2014-15</t>
+          <t>2015-04-12</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-9</v>
       </c>
       <c r="AD24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4760,13 +4827,13 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
       </c>
       <c r="AJ24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK24" t="n">
         <v>30</v>
@@ -4778,10 +4845,10 @@
         <v>6</v>
       </c>
       <c r="AN24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP24" t="n">
         <v>11</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-12-2014-15</t>
+          <t>2015-04-12</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E25" t="n">
         <v>39</v>
       </c>
       <c r="F25" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G25" t="n">
-        <v>0.481</v>
+        <v>0.488</v>
       </c>
       <c r="H25" t="n">
         <v>48.5</v>
@@ -4873,13 +4940,13 @@
         <v>85.90000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L25" t="n">
         <v>8.5</v>
       </c>
       <c r="M25" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="N25" t="n">
         <v>0.34</v>
@@ -4909,7 +4976,7 @@
         <v>15.1</v>
       </c>
       <c r="W25" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X25" t="n">
         <v>4.7</v>
@@ -4924,16 +4991,16 @@
         <v>20.3</v>
       </c>
       <c r="AB25" t="n">
-        <v>102.4</v>
+        <v>102.6</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="AD25" t="n">
         <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF25" t="n">
         <v>16</v>
@@ -4942,25 +5009,25 @@
         <v>16</v>
       </c>
       <c r="AH25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI25" t="n">
         <v>6</v>
       </c>
       <c r="AJ25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK25" t="n">
         <v>16</v>
       </c>
       <c r="AL25" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AM25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN25" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO25" t="n">
         <v>20</v>
@@ -4975,13 +5042,13 @@
         <v>14</v>
       </c>
       <c r="AS25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT25" t="n">
         <v>17</v>
       </c>
       <c r="AU25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV25" t="n">
         <v>25</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-12-2014-15</t>
+          <t>2015-04-12</t>
         </is>
       </c>
     </row>
@@ -5112,19 +5179,19 @@
         <v>4.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
       </c>
       <c r="AF26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI26" t="n">
         <v>7</v>
@@ -5142,7 +5209,7 @@
         <v>3</v>
       </c>
       <c r="AN26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO26" t="n">
         <v>27</v>
@@ -5163,7 +5230,7 @@
         <v>2</v>
       </c>
       <c r="AU26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV26" t="n">
         <v>9</v>
@@ -5172,7 +5239,7 @@
         <v>27</v>
       </c>
       <c r="AX26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
@@ -5184,10 +5251,10 @@
         <v>27</v>
       </c>
       <c r="BB26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-12-2014-15</t>
+          <t>2015-04-12</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E27" t="n">
         <v>27</v>
       </c>
       <c r="F27" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G27" t="n">
-        <v>0.338</v>
+        <v>0.342</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
@@ -5243,58 +5310,58 @@
         <v>5.6</v>
       </c>
       <c r="M27" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="N27" t="n">
-        <v>0.341</v>
+        <v>0.342</v>
       </c>
       <c r="O27" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="P27" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.766</v>
+        <v>0.767</v>
       </c>
       <c r="R27" t="n">
         <v>11.1</v>
       </c>
       <c r="S27" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="T27" t="n">
-        <v>44.3</v>
+        <v>44.4</v>
       </c>
       <c r="U27" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V27" t="n">
         <v>16.4</v>
       </c>
       <c r="W27" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X27" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Z27" t="n">
         <v>20.8</v>
       </c>
       <c r="AA27" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.1</v>
+        <v>100.9</v>
       </c>
       <c r="AC27" t="n">
-        <v>-4.2</v>
+        <v>-4.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5315,7 +5382,7 @@
         <v>28</v>
       </c>
       <c r="AK27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL27" t="n">
         <v>28</v>
@@ -5324,7 +5391,7 @@
         <v>28</v>
       </c>
       <c r="AN27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5336,22 +5403,22 @@
         <v>10</v>
       </c>
       <c r="AR27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS27" t="n">
         <v>9</v>
       </c>
       <c r="AT27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV27" t="n">
         <v>27</v>
       </c>
       <c r="AW27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX27" t="n">
         <v>27</v>
@@ -5360,13 +5427,13 @@
         <v>30</v>
       </c>
       <c r="AZ27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA27" t="n">
         <v>1</v>
       </c>
       <c r="BB27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC27" t="n">
         <v>25</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-12-2014-15</t>
+          <t>2015-04-12</t>
         </is>
       </c>
     </row>
@@ -5425,58 +5492,58 @@
         <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.365</v>
+        <v>0.366</v>
       </c>
       <c r="O28" t="n">
-        <v>16.8</v>
+        <v>16.6</v>
       </c>
       <c r="P28" t="n">
-        <v>21.6</v>
+        <v>21.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.78</v>
+        <v>0.779</v>
       </c>
       <c r="R28" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S28" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="T28" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U28" t="n">
         <v>24.3</v>
       </c>
       <c r="V28" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W28" t="n">
         <v>8.1</v>
       </c>
       <c r="X28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
         <v>4.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AA28" t="n">
         <v>19.7</v>
       </c>
       <c r="AB28" t="n">
-        <v>103.2</v>
+        <v>103.1</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5503,16 +5570,16 @@
         <v>12</v>
       </c>
       <c r="AM28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN28" t="n">
         <v>5</v>
       </c>
       <c r="AO28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ28" t="n">
         <v>4</v>
@@ -5527,10 +5594,10 @@
         <v>14</v>
       </c>
       <c r="AU28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AW28" t="n">
         <v>10</v>
@@ -5548,7 +5615,7 @@
         <v>21</v>
       </c>
       <c r="BB28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC28" t="n">
         <v>3</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-12-2014-15</t>
+          <t>2015-04-12</t>
         </is>
       </c>
     </row>
@@ -5658,10 +5725,10 @@
         <v>3.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF29" t="n">
         <v>10</v>
@@ -5670,7 +5737,7 @@
         <v>10</v>
       </c>
       <c r="AH29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI29" t="n">
         <v>11</v>
@@ -5685,10 +5752,10 @@
         <v>8</v>
       </c>
       <c r="AM29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO29" t="n">
         <v>4</v>
@@ -5706,7 +5773,7 @@
         <v>27</v>
       </c>
       <c r="AT29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU29" t="n">
         <v>23</v>
@@ -5724,7 +5791,7 @@
         <v>19</v>
       </c>
       <c r="AZ29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA29" t="n">
         <v>12</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-12-2014-15</t>
+          <t>2015-04-12</t>
         </is>
       </c>
     </row>
@@ -5840,16 +5907,16 @@
         <v>0.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH30" t="n">
         <v>30</v>
@@ -5864,7 +5931,7 @@
         <v>18</v>
       </c>
       <c r="AL30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM30" t="n">
         <v>17</v>
@@ -5915,7 +5982,7 @@
         <v>26</v>
       </c>
       <c r="BC30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-12-2014-15</t>
+          <t>2015-04-12</t>
         </is>
       </c>
     </row>
@@ -5944,25 +6011,25 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E31" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F31" t="n">
         <v>34</v>
       </c>
       <c r="G31" t="n">
-        <v>0.575</v>
+        <v>0.57</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
       </c>
       <c r="I31" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J31" t="n">
-        <v>82.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="K31" t="n">
         <v>0.464</v>
@@ -5971,16 +6038,16 @@
         <v>6</v>
       </c>
       <c r="M31" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="N31" t="n">
-        <v>0.361</v>
+        <v>0.36</v>
       </c>
       <c r="O31" t="n">
         <v>15.9</v>
       </c>
       <c r="P31" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="Q31" t="n">
         <v>0.741</v>
@@ -5992,13 +6059,13 @@
         <v>34</v>
       </c>
       <c r="T31" t="n">
-        <v>44.4</v>
+        <v>44.3</v>
       </c>
       <c r="U31" t="n">
         <v>24</v>
       </c>
       <c r="V31" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W31" t="n">
         <v>7.3</v>
@@ -6016,13 +6083,13 @@
         <v>19.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.5</v>
+        <v>98.3</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
@@ -6034,13 +6101,13 @@
         <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI31" t="n">
         <v>9</v>
       </c>
       <c r="AJ31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK31" t="n">
         <v>5</v>
@@ -6055,28 +6122,28 @@
         <v>9</v>
       </c>
       <c r="AO31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ31" t="n">
         <v>21</v>
       </c>
       <c r="AR31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS31" t="n">
         <v>6</v>
       </c>
       <c r="AT31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU31" t="n">
         <v>6</v>
       </c>
       <c r="AV31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW31" t="n">
         <v>20</v>
@@ -6094,7 +6161,7 @@
         <v>20</v>
       </c>
       <c r="BB31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC31" t="n">
         <v>13</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-12-2014-15</t>
+          <t>2015-04-12</t>
         </is>
       </c>
     </row>
